--- a/biology/Zoologie/Bécasseau_de_Temminck/Bécasseau_de_Temminck.xlsx
+++ b/biology/Zoologie/Bécasseau_de_Temminck/Bécasseau_de_Temminck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_de_Temminck</t>
+          <t>Bécasseau_de_Temminck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calidris temminckii
 Le Bécasseau de Temminck (Calidris temminckii) est une espèce de petits oiseaux limicoles de la famille des Scolopacidae et de la sous-famille des Calidridinae. Son nom commémore le zoologiste Coenraad Jacob Temminck (1778-1858).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_de_Temminck</t>
+          <t>Bécasseau_de_Temminck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bécasseau de Temminck bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire[1]. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bécasseau de Temminck bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
 </t>
         </is>
       </c>
